--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -496,109 +496,113 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Giyanti Coffee Roastery</t>
+          <t>Bakoel Koffie Cikini</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jl. Surabaya No.20, RT.15/RW.5, Menteng, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10310</t>
+          <t>Jl. Cikini Raya No.25, RT.16/RW.1, Cikini, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>giyanticoffeeroastery.com</t>
+          <t>bakoelkoffie.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(021) 31923698</t>
+          <t>(021) 31936608</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3435</v>
+        <v>5264</v>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bakoel Koffie Cikini</t>
+          <t>Giyanti Coffee Roastery</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jl. Cikini Raya No.25, RT.16/RW.1, Cikini, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10330</t>
+          <t>Jl. Surabaya No.20, RT.15/RW.5, Menteng, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10310</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bakoelkoffie.com</t>
+          <t>giyanticoffeeroastery.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(021) 31936608</t>
+          <t>(021) 31923698</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5264</v>
+        <v>3435</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Watt Coffee</t>
+          <t>Saudagar Kopi Sabang</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Capitol Park, Apartment, Jl. Salemba Raya No.16, RT.3/RW.6, Kenari, Kec. Senen, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10430</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Jl. H. Agus Salim No.26F, RT.2/RW.1, Kb. Sirih, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>saudagar-kopi.com</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0878-8111-1413</t>
+          <t>(021) 3143270</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>569</v>
+        <v>2441</v>
       </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudagar Kopi Sabang</t>
+          <t>Goedkoop</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jl. H. Agus Salim No.26F, RT.2/RW.1, Kb. Sirih, Kec. Menteng, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10340</t>
+          <t>Jl. Bendungan Hilir No.62, RT.5/RW.1, Bend. Hilir, Kecamatan Tanah Abang, Kota Jakarta Pusat, Daerah Khusus Ibukota Jakarta 10210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>saudagar-kopi.com</t>
+          <t>instagram.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(021) 3143270</t>
+          <t>(021) 5734430</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2441</v>
+        <v>2289</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
